--- a/data/financial_statements/sofp/DHI.xlsx
+++ b/data/financial_statements/sofp/DHI.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,778 +596,793 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>2573000000</v>
+        <v>4395200000</v>
       </c>
       <c r="C2">
-        <v>1684000000</v>
+        <v>4958900000</v>
       </c>
       <c r="D2">
-        <v>1689000000</v>
+        <v>3766800000</v>
       </c>
       <c r="E2">
-        <v>2465000000</v>
+        <v>3931900000</v>
       </c>
       <c r="F2">
-        <v>3237000000</v>
+        <v>4297900000</v>
       </c>
       <c r="G2">
+        <v>5264500000</v>
+      </c>
+      <c r="H2">
         <v>3613200000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3987700000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>3913800000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4569100000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3875300000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2916700000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2621000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2586000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1840200000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1527700000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1390500000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2302400000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1916800000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1724400000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1512200000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1611600000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1150700000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1582100000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1707400000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1966700000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1553100000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1851600000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1802800000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2024500000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1385700000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1225700000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1004400000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1148700000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1014300000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1373700000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1201000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1450300000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1064800000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1599300000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>423000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>364000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>328000000</v>
-      </c>
-      <c r="E3">
-        <v>322000000</v>
       </c>
       <c r="F3">
         <v>322000000</v>
       </c>
       <c r="G3">
+        <v>322000000</v>
+      </c>
+      <c r="H3">
         <v>305000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>308000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>277000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>271000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>258000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>231000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>213000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>21656000000</v>
+        <v>22445300000</v>
       </c>
       <c r="C4">
-        <v>21699000000</v>
+        <v>21655700000</v>
       </c>
       <c r="D4">
-        <v>19847000000</v>
+        <v>21698900000</v>
       </c>
       <c r="E4">
-        <v>18203000000</v>
+        <v>19846500000</v>
       </c>
       <c r="F4">
-        <v>16479000000</v>
+        <v>18202500000</v>
       </c>
       <c r="G4">
+        <v>16479100000</v>
+      </c>
+      <c r="H4">
         <v>16011700000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>14476300000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>13576500000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>12237400000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>12138700000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>12224500000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>11899200000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>11282000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>11702300000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>11920300000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>11595600000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>10395000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>10303300000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>10144400000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>10040200000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>9237101000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>9554000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>9038101000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>8742400000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>8340900000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>8504200000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>8216600000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>8088200000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>7807000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>8111200000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>8136900000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>7989300000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>7700500000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>7375600000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>6783600000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>6496100000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>6197400000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>5911500000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>5324100000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>77000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>93000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>77000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>70000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>52000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>55000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>52000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>53000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>46000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>35000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>48000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>59000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>24729000000</v>
+        <v>26840500000</v>
       </c>
       <c r="C6">
-        <v>23840000000</v>
+        <v>26614600000</v>
       </c>
       <c r="D6">
-        <v>21941000000</v>
+        <v>25465700000</v>
       </c>
       <c r="E6">
-        <v>21060000000</v>
+        <v>23778400000</v>
       </c>
       <c r="F6">
-        <v>20090000000</v>
+        <v>22500400000</v>
       </c>
       <c r="G6">
+        <v>21743600000</v>
+      </c>
+      <c r="H6">
         <v>19624900000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>18464000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>17490300000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>16806500000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>16014000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>15141200000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>14520200000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>13868000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>13542500000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>13448000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>12986100000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>12697400000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>12220100000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>11868800000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>11552400000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>10848700000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>10704700000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>10620200000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>10449800000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>10307600000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>10057300000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>10068200000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>9891000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>9831500000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>9496900000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>9362600000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>8993700000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>8849200000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>8389900000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>8157300000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>7697100000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>7647700000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>6976300000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>6923400000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>518000000</v>
+        <v>501700000</v>
       </c>
       <c r="C7">
-        <v>524000000</v>
+        <v>471600000</v>
       </c>
       <c r="D7">
-        <v>476000000</v>
+        <v>481300000</v>
       </c>
       <c r="E7">
-        <v>449000000</v>
+        <v>434000000</v>
       </c>
       <c r="F7">
-        <v>429000000</v>
+        <v>410400000</v>
       </c>
       <c r="G7">
+        <v>392900000</v>
+      </c>
+      <c r="H7">
         <v>367000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>895000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>748400000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>683700000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>631900000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>589700000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>563400000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>499200000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>454200000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>437900000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>391100000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>401100000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>385200000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>380400000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>357700000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>325000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>282800000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>248100000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>218400000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>195400000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>151700000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>149500000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>147600000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>146900000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>199300000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>193800000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>190700000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>190800000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>132900000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>123300000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>117500000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>106700000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>96100000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>87100000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>2764000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2251000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2471000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1858000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2045000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1666000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2278000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1759000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1802000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1664000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1549000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1111000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>6500000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>11000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>32200000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>32100000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>86100000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>164000000</v>
+        <v>163500000</v>
       </c>
       <c r="C9">
-        <v>177000000</v>
+        <v>163500000</v>
       </c>
       <c r="D9">
-        <v>169000000</v>
+        <v>163500000</v>
       </c>
       <c r="E9">
-        <v>172000000</v>
+        <v>163500000</v>
       </c>
       <c r="F9">
-        <v>164000000</v>
+        <v>163500000</v>
       </c>
       <c r="G9">
         <v>163500000</v>
@@ -1286,10 +1415,10 @@
         <v>163500000</v>
       </c>
       <c r="Q9">
+        <v>163500000</v>
+      </c>
+      <c r="R9">
         <v>158400000</v>
-      </c>
-      <c r="R9">
-        <v>109200000</v>
       </c>
       <c r="S9">
         <v>109200000</v>
@@ -1298,10 +1427,10 @@
         <v>109200000</v>
       </c>
       <c r="U9">
+        <v>109200000</v>
+      </c>
+      <c r="V9">
         <v>100000000</v>
-      </c>
-      <c r="V9">
-        <v>80000000</v>
       </c>
       <c r="W9">
         <v>80000000</v>
@@ -1316,7 +1445,7 @@
         <v>80000000</v>
       </c>
       <c r="AA9">
-        <v>87200000</v>
+        <v>80000000</v>
       </c>
       <c r="AB9">
         <v>87200000</v>
@@ -1328,10 +1457,10 @@
         <v>87200000</v>
       </c>
       <c r="AE9">
+        <v>87200000</v>
+      </c>
+      <c r="AF9">
         <v>97000000</v>
-      </c>
-      <c r="AF9">
-        <v>94800000</v>
       </c>
       <c r="AG9">
         <v>94800000</v>
@@ -1343,13 +1472,13 @@
         <v>94800000</v>
       </c>
       <c r="AJ9">
-        <v>41200000</v>
+        <v>94800000</v>
       </c>
       <c r="AK9">
         <v>41200000</v>
       </c>
       <c r="AL9">
-        <v>38900000</v>
+        <v>41200000</v>
       </c>
       <c r="AM9">
         <v>38900000</v>
@@ -1357,1533 +1486,1569 @@
       <c r="AN9">
         <v>38900000</v>
       </c>
+      <c r="AO9">
+        <v>38900000</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>137900000</v>
+      </c>
+      <c r="C10">
         <v>141100000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>157400000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>131700000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>137600000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>155300000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>147100000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>142800000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>142000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>144900000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>158600000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>149500000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>154100000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>163100000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>173900000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>171900000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>181400000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>194000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>204600000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>219900000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>239100000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>365000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>383700000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>451600000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>467800000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>476300000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>505100000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>526600000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>542200000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>558100000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>544300000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>547700000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>552700000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>565000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>582600000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>569800000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>578500000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>586600000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>638000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>680000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>2035000000</v>
+        <v>2620900000</v>
       </c>
       <c r="C11">
-        <v>1920000000</v>
+        <v>2960300000</v>
       </c>
       <c r="D11">
-        <v>1498000000</v>
+        <v>2602000000</v>
       </c>
       <c r="E11">
-        <v>1324000000</v>
+        <v>2177700000</v>
       </c>
       <c r="F11">
-        <v>1134000000</v>
+        <v>1787500000</v>
       </c>
       <c r="G11">
+        <v>1560600000</v>
+      </c>
+      <c r="H11">
         <v>1491000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1418500000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1236200000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1113700000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1005900000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1086100000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>921700000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>912800000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>889900000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>785700000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>818800000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>701900000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>642100000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>607700000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>622000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>565900000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>525900000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>521200000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>496100000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>499600000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>531900000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>468700000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>511500000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>527300000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>526000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>514200000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>506800000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>485600000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>516400000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>481200000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>492900000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>476500000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>537700000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>503100000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>3424000000</v>
+      </c>
+      <c r="C12">
         <v>3736500000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3404200000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2906900000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2499000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2272300000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2168600000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2619800000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2290100000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2105800000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1959900000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1988800000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1802700000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1738600000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1681500000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1559000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1549700000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1417200000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1373300000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1349300000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1404900000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1335900000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1272400000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1300900000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1262300000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>1251300000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>1275900000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>1232000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1288500000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1319500000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1366600000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1350500000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>1345000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1336200000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1326700000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1215500000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1230100000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1208700000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1310700000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1309100000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>30663000000</v>
+        <v>30264500000</v>
       </c>
       <c r="C13">
-        <v>28870000000</v>
+        <v>30351100000</v>
       </c>
       <c r="D13">
-        <v>26685000000</v>
+        <v>28869900000</v>
       </c>
       <c r="E13">
-        <v>24999000000</v>
+        <v>26685300000</v>
       </c>
       <c r="F13">
-        <v>24230000000</v>
+        <v>24999400000</v>
       </c>
       <c r="G13">
+        <v>24015900000</v>
+      </c>
+      <c r="H13">
         <v>21793500000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>21083800000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>19780400000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>18912300000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>17973900000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>17130000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>16322900000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>15606600000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>15224000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>15007000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>14535800000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>14114600000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>13593400000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>13218100000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>12957300000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>12184600000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>11977100000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>11921100000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>11712100000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>11558900000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>11333200000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>11300200000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>11179500000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>11151000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>10863500000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>10713100000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>10338700000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>10185400000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>9716600000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>9372800000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>8927200000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>8856400000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>8287000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>8232500000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>6066900000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>5412400000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>4416300000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4283300000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>1205000000</v>
+      </c>
+      <c r="C15">
+        <v>1360300000</v>
+      </c>
+      <c r="D15">
+        <v>1507300000</v>
+      </c>
+      <c r="E15">
+        <v>1378600000</v>
+      </c>
+      <c r="F15">
+        <v>1150700000</v>
+      </c>
+      <c r="G15">
+        <v>1177000000</v>
+      </c>
+      <c r="H15">
+        <v>1250900000</v>
+      </c>
+      <c r="I15">
+        <v>1137400000</v>
+      </c>
+      <c r="J15">
+        <v>845600000</v>
+      </c>
+      <c r="K15">
+        <v>900500000</v>
+      </c>
+      <c r="L15">
+        <v>761200000</v>
+      </c>
+      <c r="M15">
+        <v>707000000</v>
+      </c>
+      <c r="N15">
+        <v>659300000</v>
+      </c>
+      <c r="O15">
+        <v>634000000</v>
+      </c>
+      <c r="P15">
+        <v>681200000</v>
+      </c>
+      <c r="Q15">
+        <v>658500000</v>
+      </c>
+      <c r="R15">
+        <v>697200000</v>
+      </c>
+      <c r="S15">
+        <v>624700000</v>
+      </c>
+      <c r="T15">
+        <v>655300000</v>
+      </c>
+      <c r="U15">
+        <v>582700000</v>
+      </c>
+      <c r="V15">
+        <v>575700000</v>
+      </c>
+      <c r="W15">
+        <v>580400000</v>
+      </c>
+      <c r="X15">
+        <v>656300000</v>
+      </c>
+      <c r="Y15">
+        <v>580900000</v>
+      </c>
+      <c r="Z15">
+        <v>545100000</v>
+      </c>
+      <c r="AA15">
+        <v>577500000</v>
+      </c>
+      <c r="AB15">
+        <v>609300000</v>
+      </c>
+      <c r="AC15">
+        <v>541500000</v>
+      </c>
+      <c r="AD15">
+        <v>449400000</v>
+      </c>
+      <c r="AE15">
+        <v>516700000</v>
+      </c>
+      <c r="AF15">
+        <v>502200000</v>
+      </c>
+      <c r="AG15">
+        <v>498900000</v>
+      </c>
+      <c r="AH15">
+        <v>444600000</v>
+      </c>
+      <c r="AI15">
+        <v>525000000</v>
+      </c>
+      <c r="AJ15">
+        <v>422000000</v>
+      </c>
+      <c r="AK15">
+        <v>338500000</v>
+      </c>
+      <c r="AL15">
+        <v>381100000</v>
+      </c>
+      <c r="AM15">
+        <v>400000000</v>
+      </c>
+      <c r="AN15">
+        <v>357300000</v>
+      </c>
+      <c r="AO15">
+        <v>308600000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16">
+        <v>2816800000</v>
+      </c>
+      <c r="C16">
+        <v>3138300000</v>
+      </c>
+      <c r="D16">
+        <v>2951900000</v>
+      </c>
+      <c r="E16">
+        <v>2618900000</v>
+      </c>
+      <c r="F16">
+        <v>2580000000</v>
+      </c>
+      <c r="G16">
+        <v>2210300000</v>
+      </c>
+      <c r="H16">
+        <v>2001300000</v>
+      </c>
+      <c r="I16">
+        <v>2198100000</v>
+      </c>
+      <c r="J16">
+        <v>1938900000</v>
+      </c>
+      <c r="K16">
+        <v>1607000000</v>
+      </c>
+      <c r="L16">
+        <v>1588300000</v>
+      </c>
+      <c r="M16">
+        <v>1381600000</v>
+      </c>
+      <c r="N16">
+        <v>1377400000</v>
+      </c>
+      <c r="O16">
+        <v>1278100000</v>
+      </c>
+      <c r="P16">
+        <v>1277500000</v>
+      </c>
+      <c r="Q16">
+        <v>1192100000</v>
+      </c>
+      <c r="R16">
+        <v>1198100000</v>
+      </c>
+      <c r="S16">
+        <v>1127500000</v>
+      </c>
+      <c r="T16">
+        <v>1074600000</v>
+      </c>
+      <c r="U16">
+        <v>1029600000</v>
+      </c>
+      <c r="V16">
+        <v>1068100000</v>
+      </c>
+      <c r="W16">
+        <v>985000000</v>
+      </c>
+      <c r="X16">
+        <v>957600000</v>
+      </c>
+      <c r="Y16">
+        <v>897700000</v>
+      </c>
+      <c r="Z16">
+        <v>967600000</v>
+      </c>
+      <c r="AA16">
+        <v>917100000</v>
+      </c>
+      <c r="AB16">
+        <v>909800000</v>
+      </c>
+      <c r="AC16">
+        <v>847000000</v>
+      </c>
+      <c r="AD16">
+        <v>935300000</v>
+      </c>
+      <c r="AE16">
+        <v>927400000</v>
+      </c>
+      <c r="AF16">
+        <v>909200000</v>
+      </c>
+      <c r="AG16">
+        <v>847700000</v>
+      </c>
+      <c r="AH16">
+        <v>903500000</v>
+      </c>
+      <c r="AI16">
+        <v>875000000</v>
+      </c>
+      <c r="AJ16">
+        <v>879400000</v>
+      </c>
+      <c r="AK16">
+        <v>822600000</v>
+      </c>
+      <c r="AL16">
+        <v>884300000</v>
+      </c>
+      <c r="AM16">
+        <v>886000000</v>
+      </c>
+      <c r="AN16">
+        <v>938600000</v>
+      </c>
+      <c r="AO16">
+        <v>907200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>697000000</v>
+      </c>
+      <c r="D17">
+        <v>1756000000</v>
+      </c>
+      <c r="E17">
+        <v>1929000000</v>
+      </c>
+      <c r="F17">
+        <v>1610000000</v>
+      </c>
+      <c r="G17">
+        <v>896000000</v>
+      </c>
+      <c r="H17">
+        <v>1094000000</v>
+      </c>
+      <c r="I17">
+        <v>1204000000</v>
+      </c>
+      <c r="J17">
+        <v>969000000</v>
+      </c>
+      <c r="K17">
+        <v>1540000000</v>
+      </c>
+      <c r="L17">
+        <v>1573000000</v>
+      </c>
+      <c r="M17">
+        <v>2086000000</v>
+      </c>
+      <c r="N17">
+        <v>1868000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>1246000000</v>
+      </c>
+      <c r="D18">
+        <v>1122000000</v>
+      </c>
+      <c r="E18">
+        <v>1130000000</v>
+      </c>
+      <c r="F18">
+        <v>990000000</v>
+      </c>
+      <c r="G18">
+        <v>1029000000</v>
+      </c>
+      <c r="H18">
+        <v>902000000</v>
+      </c>
+      <c r="I18">
+        <v>838000000</v>
+      </c>
+      <c r="J18">
+        <v>611000000</v>
+      </c>
+      <c r="K18">
+        <v>608000000</v>
+      </c>
+      <c r="L18">
+        <v>504000000</v>
+      </c>
+      <c r="M18">
+        <v>441000000</v>
+      </c>
+      <c r="N18">
+        <v>439000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>4021800000</v>
+      </c>
+      <c r="C19">
+        <v>4498600000</v>
+      </c>
+      <c r="D19">
+        <v>4459200000</v>
+      </c>
+      <c r="E19">
+        <v>3997500000</v>
+      </c>
+      <c r="F19">
+        <v>3730700000</v>
+      </c>
+      <c r="G19">
+        <v>3387300000</v>
+      </c>
+      <c r="H19">
+        <v>3252200000</v>
+      </c>
+      <c r="I19">
+        <v>3335500000</v>
+      </c>
+      <c r="J19">
+        <v>2784500000</v>
+      </c>
+      <c r="K19">
+        <v>2507500000</v>
+      </c>
+      <c r="L19">
+        <v>2349500000</v>
+      </c>
+      <c r="M19">
+        <v>2088600000</v>
+      </c>
+      <c r="N19">
+        <v>2036700000</v>
+      </c>
+      <c r="O19">
+        <v>1912100000</v>
+      </c>
+      <c r="P19">
+        <v>1958700000</v>
+      </c>
+      <c r="Q19">
+        <v>1850600000</v>
+      </c>
+      <c r="R19">
+        <v>1895300000</v>
+      </c>
+      <c r="S19">
+        <v>1752200000</v>
+      </c>
+      <c r="T19">
+        <v>1729900000</v>
+      </c>
+      <c r="U19">
+        <v>1612300000</v>
+      </c>
+      <c r="V19">
+        <v>1643800000</v>
+      </c>
+      <c r="W19">
+        <v>1565400000</v>
+      </c>
+      <c r="X19">
+        <v>1613900000</v>
+      </c>
+      <c r="Y19">
+        <v>1478600000</v>
+      </c>
+      <c r="Z19">
+        <v>1512700000</v>
+      </c>
+      <c r="AA19">
+        <v>1494600000</v>
+      </c>
+      <c r="AB19">
+        <v>1519100000</v>
+      </c>
+      <c r="AC19">
+        <v>1388500000</v>
+      </c>
+      <c r="AD19">
+        <v>1384700000</v>
+      </c>
+      <c r="AE19">
+        <v>1444100000</v>
+      </c>
+      <c r="AF19">
+        <v>1411400000</v>
+      </c>
+      <c r="AG19">
+        <v>1346600000</v>
+      </c>
+      <c r="AH19">
+        <v>1348100000</v>
+      </c>
+      <c r="AI19">
+        <v>1400000000</v>
+      </c>
+      <c r="AJ19">
+        <v>1301400000</v>
+      </c>
+      <c r="AK19">
+        <v>1161100000</v>
+      </c>
+      <c r="AL19">
+        <v>1265400000</v>
+      </c>
+      <c r="AM19">
+        <v>1286000000</v>
+      </c>
+      <c r="AN19">
+        <v>1295900000</v>
+      </c>
+      <c r="AO19">
+        <v>1215800000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20">
+        <v>5690300000</v>
+      </c>
+      <c r="C20">
+        <v>6066900000</v>
+      </c>
+      <c r="D20">
+        <v>5975200000</v>
+      </c>
+      <c r="E20">
+        <v>5570000000</v>
+      </c>
+      <c r="F20">
+        <v>5255300000</v>
+      </c>
+      <c r="G20">
+        <v>5412400000</v>
+      </c>
+      <c r="H20">
+        <v>4416300000</v>
+      </c>
+      <c r="I20">
+        <v>4472300000</v>
+      </c>
+      <c r="J20">
+        <v>4225600000</v>
+      </c>
+      <c r="K20">
+        <v>4283300000</v>
+      </c>
+      <c r="L20">
+        <v>4297300000</v>
+      </c>
+      <c r="M20">
+        <v>4306600000</v>
+      </c>
+      <c r="N20">
+        <v>3783300000</v>
+      </c>
+      <c r="O20">
+        <v>3399400000</v>
+      </c>
+      <c r="P20">
+        <v>3450600000</v>
+      </c>
+      <c r="Q20">
+        <v>3622400000</v>
+      </c>
+      <c r="R20">
+        <v>3342300000</v>
+      </c>
+      <c r="S20">
+        <v>3203500000</v>
+      </c>
+      <c r="T20">
+        <v>3093600000</v>
+      </c>
+      <c r="U20">
+        <v>3233900000</v>
+      </c>
+      <c r="V20">
+        <v>3258100000</v>
+      </c>
+      <c r="W20">
+        <v>2871600000</v>
+      </c>
+      <c r="X20">
+        <v>2926500000</v>
+      </c>
+      <c r="Y20">
+        <v>3222400000</v>
+      </c>
+      <c r="Z20">
+        <v>3217600000</v>
+      </c>
+      <c r="AA20">
+        <v>3271300000</v>
+      </c>
+      <c r="AB20">
+        <v>3301300000</v>
+      </c>
+      <c r="AC20">
+        <v>3662700000</v>
+      </c>
+      <c r="AD20">
+        <v>3734300000</v>
+      </c>
+      <c r="AE20">
+        <v>3811500000</v>
+      </c>
+      <c r="AF20">
+        <v>3821100000</v>
+      </c>
+      <c r="AG20">
+        <v>3945500000</v>
+      </c>
+      <c r="AH20">
+        <v>3726800000</v>
+      </c>
+      <c r="AI20">
+        <v>3665700000</v>
+      </c>
+      <c r="AJ20">
+        <v>3445300000</v>
+      </c>
+      <c r="AK20">
+        <v>3862100000</v>
+      </c>
+      <c r="AL20">
+        <v>3461900000</v>
+      </c>
+      <c r="AM20">
+        <v>3509000000</v>
+      </c>
+      <c r="AN20">
+        <v>3083600000</v>
+      </c>
+      <c r="AO20">
+        <v>3273000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
+        <v>-141000000</v>
+      </c>
+      <c r="D21">
+        <v>-157000000</v>
+      </c>
+      <c r="E21">
+        <v>-132000000</v>
+      </c>
+      <c r="F21">
+        <v>-138000000</v>
+      </c>
+      <c r="G21">
+        <v>-155000000</v>
+      </c>
+      <c r="H21">
+        <v>-147000000</v>
+      </c>
+      <c r="I21">
+        <v>-143000000</v>
+      </c>
+      <c r="J21">
+        <v>-142000000</v>
+      </c>
+      <c r="K21">
+        <v>-145000000</v>
+      </c>
+      <c r="L21">
+        <v>-159000000</v>
+      </c>
+      <c r="M21">
+        <v>-150000000</v>
+      </c>
+      <c r="N21">
+        <v>-154000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>1733000000</v>
+      </c>
+      <c r="D22">
+        <v>1338000000</v>
+      </c>
+      <c r="E22">
         <v>1360000000</v>
       </c>
-      <c r="C15">
-        <v>1507000000</v>
-      </c>
-      <c r="D15">
-        <v>1379000000</v>
-      </c>
-      <c r="E15">
-        <v>1151000000</v>
-      </c>
-      <c r="F15">
-        <v>1177000000</v>
-      </c>
-      <c r="G15">
-        <v>1250900000</v>
-      </c>
-      <c r="H15">
-        <v>1137400000</v>
-      </c>
-      <c r="I15">
-        <v>845600000</v>
-      </c>
-      <c r="J15">
-        <v>900500000</v>
-      </c>
-      <c r="K15">
-        <v>761200000</v>
-      </c>
-      <c r="L15">
-        <v>707000000</v>
-      </c>
-      <c r="M15">
-        <v>659300000</v>
-      </c>
-      <c r="N15">
-        <v>634000000</v>
-      </c>
-      <c r="O15">
-        <v>681200000</v>
-      </c>
-      <c r="P15">
-        <v>658500000</v>
-      </c>
-      <c r="Q15">
-        <v>697200000</v>
-      </c>
-      <c r="R15">
-        <v>624700000</v>
-      </c>
-      <c r="S15">
-        <v>655300000</v>
-      </c>
-      <c r="T15">
-        <v>582700000</v>
-      </c>
-      <c r="U15">
-        <v>575700000</v>
-      </c>
-      <c r="V15">
-        <v>580400000</v>
-      </c>
-      <c r="W15">
-        <v>656300000</v>
-      </c>
-      <c r="X15">
-        <v>580900000</v>
-      </c>
-      <c r="Y15">
-        <v>545100000</v>
-      </c>
-      <c r="Z15">
-        <v>577500000</v>
-      </c>
-      <c r="AA15">
-        <v>609300000</v>
-      </c>
-      <c r="AB15">
-        <v>541500000</v>
-      </c>
-      <c r="AC15">
-        <v>449400000</v>
-      </c>
-      <c r="AD15">
-        <v>516700000</v>
-      </c>
-      <c r="AE15">
-        <v>502200000</v>
-      </c>
-      <c r="AF15">
-        <v>498900000</v>
-      </c>
-      <c r="AG15">
-        <v>444600000</v>
-      </c>
-      <c r="AH15">
-        <v>525000000</v>
-      </c>
-      <c r="AI15">
-        <v>422000000</v>
-      </c>
-      <c r="AJ15">
-        <v>338500000</v>
-      </c>
-      <c r="AK15">
-        <v>381100000</v>
-      </c>
-      <c r="AL15">
-        <v>400000000</v>
-      </c>
-      <c r="AM15">
-        <v>357300000</v>
-      </c>
-      <c r="AN15">
-        <v>308600000</v>
+      <c r="F22">
+        <v>1120000000</v>
+      </c>
+      <c r="G22">
+        <v>1056000000</v>
+      </c>
+      <c r="H22">
+        <v>1024000000</v>
+      </c>
+      <c r="I22">
+        <v>1084000000</v>
+      </c>
+      <c r="J22">
+        <v>1011000000</v>
+      </c>
+      <c r="K22">
+        <v>919000000</v>
+      </c>
+      <c r="L22">
+        <v>878000000</v>
+      </c>
+      <c r="M22">
+        <v>799000000</v>
+      </c>
+      <c r="N22">
+        <v>783000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>3138300000</v>
-      </c>
-      <c r="C16">
-        <v>2951900000</v>
-      </c>
-      <c r="D16">
-        <v>2618900000</v>
-      </c>
-      <c r="E16">
-        <v>2580000000</v>
-      </c>
-      <c r="F16">
-        <v>2210300000</v>
-      </c>
-      <c r="G16">
-        <v>2001300000</v>
-      </c>
-      <c r="H16">
-        <v>2198100000</v>
-      </c>
-      <c r="I16">
-        <v>1938900000</v>
-      </c>
-      <c r="J16">
-        <v>1607000000</v>
-      </c>
-      <c r="K16">
-        <v>1588300000</v>
-      </c>
-      <c r="L16">
-        <v>1381600000</v>
-      </c>
-      <c r="M16">
-        <v>1377400000</v>
-      </c>
-      <c r="N16">
-        <v>1278100000</v>
-      </c>
-      <c r="O16">
-        <v>1277500000</v>
-      </c>
-      <c r="P16">
-        <v>1192100000</v>
-      </c>
-      <c r="Q16">
-        <v>1198100000</v>
-      </c>
-      <c r="R16">
-        <v>1127500000</v>
-      </c>
-      <c r="S16">
-        <v>1074600000</v>
-      </c>
-      <c r="T16">
-        <v>1029600000</v>
-      </c>
-      <c r="U16">
-        <v>1068100000</v>
-      </c>
-      <c r="V16">
-        <v>985000000</v>
-      </c>
-      <c r="W16">
-        <v>957600000</v>
-      </c>
-      <c r="X16">
-        <v>897700000</v>
-      </c>
-      <c r="Y16">
-        <v>967600000</v>
-      </c>
-      <c r="Z16">
-        <v>917100000</v>
-      </c>
-      <c r="AA16">
-        <v>909800000</v>
-      </c>
-      <c r="AB16">
-        <v>847000000</v>
-      </c>
-      <c r="AC16">
-        <v>935300000</v>
-      </c>
-      <c r="AD16">
-        <v>927400000</v>
-      </c>
-      <c r="AE16">
-        <v>909200000</v>
-      </c>
-      <c r="AF16">
-        <v>847700000</v>
-      </c>
-      <c r="AG16">
-        <v>903500000</v>
-      </c>
-      <c r="AH16">
-        <v>875000000</v>
-      </c>
-      <c r="AI16">
-        <v>879400000</v>
-      </c>
-      <c r="AJ16">
-        <v>822600000</v>
-      </c>
-      <c r="AK16">
-        <v>884300000</v>
-      </c>
-      <c r="AL16">
-        <v>886000000</v>
-      </c>
-      <c r="AM16">
-        <v>938600000</v>
-      </c>
-      <c r="AN16">
-        <v>907200000</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <v>5690300000</v>
+      </c>
+      <c r="C23">
+        <v>6066900000</v>
+      </c>
+      <c r="D23">
+        <v>5975200000</v>
+      </c>
+      <c r="E23">
+        <v>5570000000</v>
+      </c>
+      <c r="F23">
+        <v>5255300000</v>
+      </c>
+      <c r="G23">
+        <v>5412400000</v>
+      </c>
+      <c r="H23">
+        <v>4416300000</v>
+      </c>
+      <c r="I23">
+        <v>4472300000</v>
+      </c>
+      <c r="J23">
+        <v>4225600000</v>
+      </c>
+      <c r="K23">
+        <v>4283300000</v>
+      </c>
+      <c r="L23">
+        <v>4297300000</v>
+      </c>
+      <c r="M23">
+        <v>4306600000</v>
+      </c>
+      <c r="N23">
+        <v>3783300000</v>
+      </c>
+      <c r="O23">
+        <v>3399400000</v>
+      </c>
+      <c r="P23">
+        <v>3450600000</v>
+      </c>
+      <c r="Q23">
+        <v>3622400000</v>
+      </c>
+      <c r="R23">
+        <v>3342300000</v>
+      </c>
+      <c r="S23">
+        <v>3203500000</v>
+      </c>
+      <c r="T23">
+        <v>3093600000</v>
+      </c>
+      <c r="U23">
+        <v>3233900000</v>
+      </c>
+      <c r="V23">
+        <v>3258100000</v>
+      </c>
+      <c r="W23">
+        <v>2871600000</v>
+      </c>
+      <c r="X23">
+        <v>2926500000</v>
+      </c>
+      <c r="Y23">
+        <v>3222400000</v>
+      </c>
+      <c r="Z23">
+        <v>3217600000</v>
+      </c>
+      <c r="AA23">
+        <v>3271300000</v>
+      </c>
+      <c r="AB23">
+        <v>3301300000</v>
+      </c>
+      <c r="AC23">
+        <v>3662700000</v>
+      </c>
+      <c r="AD23">
+        <v>3734300000</v>
+      </c>
+      <c r="AE23">
+        <v>3811500000</v>
+      </c>
+      <c r="AF23">
+        <v>3821100000</v>
+      </c>
+      <c r="AG23">
+        <v>3945500000</v>
+      </c>
+      <c r="AH23">
+        <v>3726800000</v>
+      </c>
+      <c r="AI23">
+        <v>3665700000</v>
+      </c>
+      <c r="AJ23">
+        <v>3445300000</v>
+      </c>
+      <c r="AK23">
+        <v>3862100000</v>
+      </c>
+      <c r="AL23">
+        <v>3461900000</v>
+      </c>
+      <c r="AM23">
+        <v>3509000000</v>
+      </c>
+      <c r="AN23">
+        <v>3083600000</v>
+      </c>
+      <c r="AO23">
+        <v>3273000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>697000000</v>
-      </c>
-      <c r="C17">
-        <v>1756000000</v>
-      </c>
-      <c r="D17">
-        <v>1929000000</v>
-      </c>
-      <c r="E17">
-        <v>1610000000</v>
-      </c>
-      <c r="F17">
-        <v>896000000</v>
-      </c>
-      <c r="G17">
-        <v>1094000000</v>
-      </c>
-      <c r="H17">
-        <v>1204000000</v>
-      </c>
-      <c r="I17">
-        <v>969000000</v>
-      </c>
-      <c r="J17">
-        <v>1540000000</v>
-      </c>
-      <c r="K17">
-        <v>1573000000</v>
-      </c>
-      <c r="L17">
-        <v>2086000000</v>
-      </c>
-      <c r="M17">
-        <v>1868000000</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>9712100000</v>
+      </c>
+      <c r="C24">
+        <v>10565500000</v>
+      </c>
+      <c r="D24">
+        <v>10434400000</v>
+      </c>
+      <c r="E24">
+        <v>9567500000</v>
+      </c>
+      <c r="F24">
+        <v>8986000000</v>
+      </c>
+      <c r="G24">
+        <v>8799700000</v>
+      </c>
+      <c r="H24">
+        <v>7668500000</v>
+      </c>
+      <c r="I24">
+        <v>7807800000</v>
+      </c>
+      <c r="J24">
+        <v>7010100000</v>
+      </c>
+      <c r="K24">
+        <v>6790800000</v>
+      </c>
+      <c r="L24">
+        <v>6646800000</v>
+      </c>
+      <c r="M24">
+        <v>6395200000</v>
+      </c>
+      <c r="N24">
+        <v>5820000000</v>
+      </c>
+      <c r="O24">
+        <v>5311500000</v>
+      </c>
+      <c r="P24">
+        <v>5409300000</v>
+      </c>
+      <c r="Q24">
+        <v>5473000000</v>
+      </c>
+      <c r="R24">
+        <v>5237600000</v>
+      </c>
+      <c r="S24">
+        <v>4955700000</v>
+      </c>
+      <c r="T24">
+        <v>4823500000</v>
+      </c>
+      <c r="U24">
+        <v>4846200000</v>
+      </c>
+      <c r="V24">
+        <v>4901900000</v>
+      </c>
+      <c r="W24">
+        <v>4437000000</v>
+      </c>
+      <c r="X24">
+        <v>4540400000</v>
+      </c>
+      <c r="Y24">
+        <v>4701000000</v>
+      </c>
+      <c r="Z24">
+        <v>4730300000</v>
+      </c>
+      <c r="AA24">
+        <v>4765900000</v>
+      </c>
+      <c r="AB24">
+        <v>4820400000</v>
+      </c>
+      <c r="AC24">
+        <v>5051200000</v>
+      </c>
+      <c r="AD24">
+        <v>5119000000</v>
+      </c>
+      <c r="AE24">
+        <v>5255600000</v>
+      </c>
+      <c r="AF24">
+        <v>5232500000</v>
+      </c>
+      <c r="AG24">
+        <v>5292100000</v>
+      </c>
+      <c r="AH24">
+        <v>5074900000</v>
+      </c>
+      <c r="AI24">
+        <v>5065700000</v>
+      </c>
+      <c r="AJ24">
+        <v>4746700000</v>
+      </c>
+      <c r="AK24">
+        <v>5023200000</v>
+      </c>
+      <c r="AL24">
+        <v>4727300000</v>
+      </c>
+      <c r="AM24">
+        <v>4795000000</v>
+      </c>
+      <c r="AN24">
+        <v>4379500000</v>
+      </c>
+      <c r="AO24">
+        <v>4488800000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1246000000</v>
-      </c>
-      <c r="C18">
-        <v>1122000000</v>
-      </c>
-      <c r="D18">
-        <v>1130000000</v>
-      </c>
-      <c r="E18">
-        <v>990000000</v>
-      </c>
-      <c r="F18">
-        <v>1029000000</v>
-      </c>
-      <c r="G18">
-        <v>902000000</v>
-      </c>
-      <c r="H18">
-        <v>838000000</v>
-      </c>
-      <c r="I18">
-        <v>611000000</v>
-      </c>
-      <c r="J18">
-        <v>608000000</v>
-      </c>
-      <c r="K18">
-        <v>504000000</v>
-      </c>
-      <c r="L18">
-        <v>441000000</v>
-      </c>
-      <c r="M18">
-        <v>439000000</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>3352000000</v>
+      </c>
+      <c r="C25">
+        <v>3349500000</v>
+      </c>
+      <c r="D25">
+        <v>3317700000</v>
+      </c>
+      <c r="E25">
+        <v>3288700000</v>
+      </c>
+      <c r="F25">
+        <v>3282700000</v>
+      </c>
+      <c r="G25">
+        <v>3274800000</v>
+      </c>
+      <c r="H25">
+        <v>3246000000</v>
+      </c>
+      <c r="I25">
+        <v>3208400000</v>
+      </c>
+      <c r="J25">
+        <v>3236900000</v>
+      </c>
+      <c r="K25">
+        <v>3240900000</v>
+      </c>
+      <c r="L25">
+        <v>3214200000</v>
+      </c>
+      <c r="M25">
+        <v>3191300000</v>
+      </c>
+      <c r="N25">
+        <v>3182000000</v>
+      </c>
+      <c r="O25">
+        <v>3179100000</v>
+      </c>
+      <c r="P25">
+        <v>3146000000</v>
+      </c>
+      <c r="Q25">
+        <v>3123400000</v>
+      </c>
+      <c r="R25">
+        <v>3107600000</v>
+      </c>
+      <c r="S25">
+        <v>3085000000</v>
+      </c>
+      <c r="T25">
+        <v>3064400000</v>
+      </c>
+      <c r="U25">
+        <v>3045700000</v>
+      </c>
+      <c r="V25">
+        <v>3010200000</v>
+      </c>
+      <c r="W25">
+        <v>2992200000</v>
+      </c>
+      <c r="X25">
+        <v>2957200000</v>
+      </c>
+      <c r="Y25">
+        <v>2931500000</v>
+      </c>
+      <c r="Z25">
+        <v>2885000000</v>
+      </c>
+      <c r="AA25">
+        <v>2865800000</v>
+      </c>
+      <c r="AB25">
+        <v>2839300000</v>
+      </c>
+      <c r="AC25">
+        <v>2795600000</v>
+      </c>
+      <c r="AD25">
+        <v>2769600000</v>
+      </c>
+      <c r="AE25">
+        <v>2733800000</v>
+      </c>
+      <c r="AF25">
+        <v>2684300000</v>
+      </c>
+      <c r="AG25">
+        <v>2671300000</v>
+      </c>
+      <c r="AH25">
+        <v>2639100000</v>
+      </c>
+      <c r="AI25">
+        <v>2613700000</v>
+      </c>
+      <c r="AJ25">
+        <v>2607600000</v>
+      </c>
+      <c r="AK25">
+        <v>2087500000</v>
+      </c>
+      <c r="AL25">
+        <v>2057200000</v>
+      </c>
+      <c r="AM25">
+        <v>2042000000</v>
+      </c>
+      <c r="AN25">
+        <v>2027700000</v>
+      </c>
+      <c r="AO25">
+        <v>2011900000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>3414000000</v>
-      </c>
-      <c r="C19">
-        <v>4832000000</v>
-      </c>
-      <c r="D19">
-        <v>4523000000</v>
-      </c>
-      <c r="E19">
-        <v>4181000000</v>
-      </c>
-      <c r="F19">
-        <v>3190000000</v>
-      </c>
-      <c r="G19">
-        <v>3252200000</v>
-      </c>
-      <c r="H19">
-        <v>3335500000</v>
-      </c>
-      <c r="I19">
-        <v>2784500000</v>
-      </c>
-      <c r="J19">
-        <v>2507500000</v>
-      </c>
-      <c r="K19">
-        <v>2349500000</v>
-      </c>
-      <c r="L19">
-        <v>2088600000</v>
-      </c>
-      <c r="M19">
-        <v>2036700000</v>
-      </c>
-      <c r="N19">
-        <v>1912100000</v>
-      </c>
-      <c r="O19">
-        <v>1958700000</v>
-      </c>
-      <c r="P19">
-        <v>1850600000</v>
-      </c>
-      <c r="Q19">
-        <v>1895300000</v>
-      </c>
-      <c r="R19">
-        <v>1752200000</v>
-      </c>
-      <c r="S19">
-        <v>1729900000</v>
-      </c>
-      <c r="T19">
-        <v>1612300000</v>
-      </c>
-      <c r="U19">
-        <v>1643800000</v>
-      </c>
-      <c r="V19">
-        <v>1565400000</v>
-      </c>
-      <c r="W19">
-        <v>1613900000</v>
-      </c>
-      <c r="X19">
-        <v>1478600000</v>
-      </c>
-      <c r="Y19">
-        <v>1512700000</v>
-      </c>
-      <c r="Z19">
-        <v>1494600000</v>
-      </c>
-      <c r="AA19">
-        <v>1519100000</v>
-      </c>
-      <c r="AB19">
-        <v>1388500000</v>
-      </c>
-      <c r="AC19">
-        <v>1384700000</v>
-      </c>
-      <c r="AD19">
-        <v>1444100000</v>
-      </c>
-      <c r="AE19">
-        <v>1411400000</v>
-      </c>
-      <c r="AF19">
-        <v>1346600000</v>
-      </c>
-      <c r="AG19">
-        <v>1348100000</v>
-      </c>
-      <c r="AH19">
-        <v>1400000000</v>
-      </c>
-      <c r="AI19">
-        <v>1301400000</v>
-      </c>
-      <c r="AJ19">
-        <v>1161100000</v>
-      </c>
-      <c r="AK19">
-        <v>1265400000</v>
-      </c>
-      <c r="AL19">
-        <v>1286000000</v>
-      </c>
-      <c r="AM19">
-        <v>1295900000</v>
-      </c>
-      <c r="AN19">
-        <v>1215800000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>5418000000</v>
-      </c>
-      <c r="C20">
-        <v>4264000000</v>
-      </c>
-      <c r="D20">
-        <v>3685000000</v>
-      </c>
-      <c r="E20">
-        <v>3685000000</v>
-      </c>
-      <c r="F20">
-        <v>4553000000</v>
-      </c>
-      <c r="G20">
-        <v>4416300000</v>
-      </c>
-      <c r="H20">
-        <v>4472300000</v>
-      </c>
-      <c r="I20">
-        <v>4225600000</v>
-      </c>
-      <c r="J20">
-        <v>4283300000</v>
-      </c>
-      <c r="K20">
-        <v>4297300000</v>
-      </c>
-      <c r="L20">
-        <v>4306600000</v>
-      </c>
-      <c r="M20">
-        <v>3783300000</v>
-      </c>
-      <c r="N20">
-        <v>3399400000</v>
-      </c>
-      <c r="O20">
-        <v>3450600000</v>
-      </c>
-      <c r="P20">
-        <v>3622400000</v>
-      </c>
-      <c r="Q20">
-        <v>3342300000</v>
-      </c>
-      <c r="R20">
-        <v>3203500000</v>
-      </c>
-      <c r="S20">
-        <v>3093600000</v>
-      </c>
-      <c r="T20">
-        <v>3233900000</v>
-      </c>
-      <c r="U20">
-        <v>3258100000</v>
-      </c>
-      <c r="V20">
-        <v>2871600000</v>
-      </c>
-      <c r="W20">
-        <v>2926500000</v>
-      </c>
-      <c r="X20">
-        <v>3222400000</v>
-      </c>
-      <c r="Y20">
-        <v>3217600000</v>
-      </c>
-      <c r="Z20">
-        <v>3271300000</v>
-      </c>
-      <c r="AA20">
-        <v>3301300000</v>
-      </c>
-      <c r="AB20">
-        <v>3662700000</v>
-      </c>
-      <c r="AC20">
-        <v>3734300000</v>
-      </c>
-      <c r="AD20">
-        <v>3811500000</v>
-      </c>
-      <c r="AE20">
-        <v>3821100000</v>
-      </c>
-      <c r="AF20">
-        <v>3945500000</v>
-      </c>
-      <c r="AG20">
-        <v>3726800000</v>
-      </c>
-      <c r="AH20">
-        <v>3665700000</v>
-      </c>
-      <c r="AI20">
-        <v>3445300000</v>
-      </c>
-      <c r="AJ20">
-        <v>3862100000</v>
-      </c>
-      <c r="AK20">
-        <v>3461900000</v>
-      </c>
-      <c r="AL20">
-        <v>3509000000</v>
-      </c>
-      <c r="AM20">
-        <v>3083600000</v>
-      </c>
-      <c r="AN20">
-        <v>3273000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>-141000000</v>
-      </c>
-      <c r="C21">
-        <v>-157000000</v>
-      </c>
-      <c r="D21">
-        <v>-132000000</v>
-      </c>
-      <c r="E21">
-        <v>-138000000</v>
-      </c>
-      <c r="F21">
-        <v>-155000000</v>
-      </c>
-      <c r="G21">
-        <v>-147000000</v>
-      </c>
-      <c r="H21">
-        <v>-143000000</v>
-      </c>
-      <c r="I21">
-        <v>-142000000</v>
-      </c>
-      <c r="J21">
-        <v>-145000000</v>
-      </c>
-      <c r="K21">
-        <v>-159000000</v>
-      </c>
-      <c r="L21">
-        <v>-150000000</v>
-      </c>
-      <c r="M21">
-        <v>-154000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1733000000</v>
-      </c>
-      <c r="C22">
-        <v>1338000000</v>
-      </c>
-      <c r="D22">
-        <v>1360000000</v>
-      </c>
-      <c r="E22">
-        <v>1120000000</v>
-      </c>
-      <c r="F22">
-        <v>1056000000</v>
-      </c>
-      <c r="G22">
-        <v>1024000000</v>
-      </c>
-      <c r="H22">
-        <v>1084000000</v>
-      </c>
-      <c r="I22">
-        <v>1011000000</v>
-      </c>
-      <c r="J22">
-        <v>919000000</v>
-      </c>
-      <c r="K22">
-        <v>878000000</v>
-      </c>
-      <c r="L22">
-        <v>799000000</v>
-      </c>
-      <c r="M22">
-        <v>783000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>6066900000</v>
-      </c>
-      <c r="C23">
-        <v>5975200000</v>
-      </c>
-      <c r="D23">
-        <v>5570000000</v>
-      </c>
-      <c r="E23">
-        <v>5255300000</v>
-      </c>
-      <c r="F23">
-        <v>5412400000</v>
-      </c>
-      <c r="G23">
-        <v>4416300000</v>
-      </c>
-      <c r="H23">
-        <v>4472300000</v>
-      </c>
-      <c r="I23">
-        <v>4225600000</v>
-      </c>
-      <c r="J23">
-        <v>4283300000</v>
-      </c>
-      <c r="K23">
-        <v>4297300000</v>
-      </c>
-      <c r="L23">
-        <v>4306600000</v>
-      </c>
-      <c r="M23">
-        <v>3783300000</v>
-      </c>
-      <c r="N23">
-        <v>3399400000</v>
-      </c>
-      <c r="O23">
-        <v>3450600000</v>
-      </c>
-      <c r="P23">
-        <v>3622400000</v>
-      </c>
-      <c r="Q23">
-        <v>3342300000</v>
-      </c>
-      <c r="R23">
-        <v>3203500000</v>
-      </c>
-      <c r="S23">
-        <v>3093600000</v>
-      </c>
-      <c r="T23">
-        <v>3233900000</v>
-      </c>
-      <c r="U23">
-        <v>3258100000</v>
-      </c>
-      <c r="V23">
-        <v>2871600000</v>
-      </c>
-      <c r="W23">
-        <v>2926500000</v>
-      </c>
-      <c r="X23">
-        <v>3222400000</v>
-      </c>
-      <c r="Y23">
-        <v>3217600000</v>
-      </c>
-      <c r="Z23">
-        <v>3271300000</v>
-      </c>
-      <c r="AA23">
-        <v>3301300000</v>
-      </c>
-      <c r="AB23">
-        <v>3662700000</v>
-      </c>
-      <c r="AC23">
-        <v>3734300000</v>
-      </c>
-      <c r="AD23">
-        <v>3811500000</v>
-      </c>
-      <c r="AE23">
-        <v>3821100000</v>
-      </c>
-      <c r="AF23">
-        <v>3945500000</v>
-      </c>
-      <c r="AG23">
-        <v>3726800000</v>
-      </c>
-      <c r="AH23">
-        <v>3665700000</v>
-      </c>
-      <c r="AI23">
-        <v>3445300000</v>
-      </c>
-      <c r="AJ23">
-        <v>3862100000</v>
-      </c>
-      <c r="AK23">
-        <v>3461900000</v>
-      </c>
-      <c r="AL23">
-        <v>3509000000</v>
-      </c>
-      <c r="AM23">
-        <v>3083600000</v>
-      </c>
-      <c r="AN23">
-        <v>3273000000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>10877000000</v>
-      </c>
-      <c r="C24">
-        <v>10434000000</v>
-      </c>
-      <c r="D24">
-        <v>9568000000</v>
-      </c>
-      <c r="E24">
-        <v>8986000000</v>
-      </c>
-      <c r="F24">
-        <v>9013000000</v>
-      </c>
-      <c r="G24">
-        <v>7668500000</v>
-      </c>
-      <c r="H24">
-        <v>7807800000</v>
-      </c>
-      <c r="I24">
-        <v>7010100000</v>
-      </c>
-      <c r="J24">
-        <v>6790800000</v>
-      </c>
-      <c r="K24">
-        <v>6646800000</v>
-      </c>
-      <c r="L24">
-        <v>6395200000</v>
-      </c>
-      <c r="M24">
-        <v>5820000000</v>
-      </c>
-      <c r="N24">
-        <v>5311500000</v>
-      </c>
-      <c r="O24">
-        <v>5409300000</v>
-      </c>
-      <c r="P24">
-        <v>5473000000</v>
-      </c>
-      <c r="Q24">
-        <v>5237600000</v>
-      </c>
-      <c r="R24">
-        <v>4955700000</v>
-      </c>
-      <c r="S24">
-        <v>4823500000</v>
-      </c>
-      <c r="T24">
-        <v>4846200000</v>
-      </c>
-      <c r="U24">
-        <v>4901900000</v>
-      </c>
-      <c r="V24">
-        <v>4437000000</v>
-      </c>
-      <c r="W24">
-        <v>4540400000</v>
-      </c>
-      <c r="X24">
-        <v>4701000000</v>
-      </c>
-      <c r="Y24">
-        <v>4730300000</v>
-      </c>
-      <c r="Z24">
-        <v>4765900000</v>
-      </c>
-      <c r="AA24">
-        <v>4820400000</v>
-      </c>
-      <c r="AB24">
-        <v>5051200000</v>
-      </c>
-      <c r="AC24">
-        <v>5119000000</v>
-      </c>
-      <c r="AD24">
-        <v>5255600000</v>
-      </c>
-      <c r="AE24">
-        <v>5232500000</v>
-      </c>
-      <c r="AF24">
-        <v>5292100000</v>
-      </c>
-      <c r="AG24">
-        <v>5074900000</v>
-      </c>
-      <c r="AH24">
-        <v>5065700000</v>
-      </c>
-      <c r="AI24">
-        <v>4746700000</v>
-      </c>
-      <c r="AJ24">
-        <v>5023200000</v>
-      </c>
-      <c r="AK24">
-        <v>4727300000</v>
-      </c>
-      <c r="AL24">
-        <v>4795000000</v>
-      </c>
-      <c r="AM24">
-        <v>4379500000</v>
-      </c>
-      <c r="AN24">
-        <v>4488800000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>3349500000</v>
-      </c>
-      <c r="C25">
-        <v>3317700000</v>
-      </c>
-      <c r="D25">
-        <v>3288700000</v>
-      </c>
-      <c r="E25">
-        <v>3282700000</v>
-      </c>
-      <c r="F25">
-        <v>3274800000</v>
-      </c>
-      <c r="G25">
-        <v>3246000000</v>
-      </c>
-      <c r="H25">
-        <v>3208400000</v>
-      </c>
-      <c r="I25">
-        <v>3236900000</v>
-      </c>
-      <c r="J25">
-        <v>3240900000</v>
-      </c>
-      <c r="K25">
-        <v>3214200000</v>
-      </c>
-      <c r="L25">
-        <v>3191300000</v>
-      </c>
-      <c r="M25">
-        <v>3182000000</v>
-      </c>
-      <c r="N25">
-        <v>3179100000</v>
-      </c>
-      <c r="O25">
-        <v>3146000000</v>
-      </c>
-      <c r="P25">
-        <v>3123400000</v>
-      </c>
-      <c r="Q25">
-        <v>3107600000</v>
-      </c>
-      <c r="R25">
-        <v>3085000000</v>
-      </c>
-      <c r="S25">
-        <v>3064400000</v>
-      </c>
-      <c r="T25">
-        <v>3045700000</v>
-      </c>
-      <c r="U25">
-        <v>3010200000</v>
-      </c>
-      <c r="V25">
-        <v>2992200000</v>
-      </c>
-      <c r="W25">
-        <v>2957200000</v>
-      </c>
-      <c r="X25">
-        <v>2931500000</v>
-      </c>
-      <c r="Y25">
-        <v>2885000000</v>
-      </c>
-      <c r="Z25">
-        <v>2865800000</v>
-      </c>
-      <c r="AA25">
-        <v>2839300000</v>
-      </c>
-      <c r="AB25">
-        <v>2795600000</v>
-      </c>
-      <c r="AC25">
-        <v>2769600000</v>
-      </c>
-      <c r="AD25">
-        <v>2733800000</v>
-      </c>
-      <c r="AE25">
-        <v>2684300000</v>
-      </c>
-      <c r="AF25">
-        <v>2671300000</v>
-      </c>
-      <c r="AG25">
-        <v>2639100000</v>
-      </c>
-      <c r="AH25">
-        <v>2613700000</v>
-      </c>
-      <c r="AI25">
-        <v>2607600000</v>
-      </c>
-      <c r="AJ25">
-        <v>2087500000</v>
-      </c>
-      <c r="AK25">
-        <v>2057200000</v>
-      </c>
-      <c r="AL25">
-        <v>2042000000</v>
-      </c>
-      <c r="AM25">
-        <v>2027700000</v>
-      </c>
-      <c r="AN25">
-        <v>2011900000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>4000000</v>
@@ -2910,7 +3075,7 @@
         <v>4000000</v>
       </c>
       <c r="J26">
-        <v>3900000</v>
+        <v>4000000</v>
       </c>
       <c r="K26">
         <v>3900000</v>
@@ -2946,7 +3111,7 @@
         <v>3900000</v>
       </c>
       <c r="V26">
-        <v>3800000</v>
+        <v>3900000</v>
       </c>
       <c r="W26">
         <v>3800000</v>
@@ -2973,7 +3138,7 @@
         <v>3800000</v>
       </c>
       <c r="AE26">
-        <v>3700000</v>
+        <v>3800000</v>
       </c>
       <c r="AF26">
         <v>3700000</v>
@@ -2988,7 +3153,7 @@
         <v>3700000</v>
       </c>
       <c r="AJ26">
-        <v>3300000</v>
+        <v>3700000</v>
       </c>
       <c r="AK26">
         <v>3300000</v>
@@ -3002,159 +3167,165 @@
       <c r="AN26">
         <v>3300000</v>
       </c>
+      <c r="AO26">
+        <v>3300000</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
-        <v>19185000000</v>
+        <v>20057900000</v>
       </c>
       <c r="C27">
-        <v>17632000000</v>
+        <v>19185300000</v>
       </c>
       <c r="D27">
+        <v>17631600000</v>
+      </c>
+      <c r="E27">
         <v>16063000000</v>
       </c>
-      <c r="E27">
-        <v>14706000000</v>
-      </c>
       <c r="F27">
-        <v>13644000000</v>
+        <v>14705800000</v>
       </c>
       <c r="G27">
+        <v>13644300000</v>
+      </c>
+      <c r="H27">
         <v>12376900000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>11333500000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>10476700000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>9757800000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>8992500000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>8425400000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>8006800000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>7640100000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>7190400000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>6771600000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>6476200000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>6217900000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>5798800000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>5392100000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>5088200000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>4946000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>4670100000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>4418600000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>4226800000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>4057200000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>3803400000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>3583300000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>3417700000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>3289600000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>3073700000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>2875200000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>2750200000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>2630500000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>2487000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>2387600000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>2268700000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>2145600000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>2006100000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>1860100000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>3260600000</v>
+      </c>
+      <c r="C28">
         <v>3142500000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2890800000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2580800000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2314800000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2036600000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1824000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1582800000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1232400000</v>
-      </c>
-      <c r="J28">
-        <v>1162600000</v>
       </c>
       <c r="K28">
         <v>1162600000</v>
@@ -3163,40 +3334,40 @@
         <v>1162600000</v>
       </c>
       <c r="M28">
+        <v>1162600000</v>
+      </c>
+      <c r="N28">
         <v>965300000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>802200000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>697900000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>538600000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>463000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>322400000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>269800000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>242800000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>220300000</v>
-      </c>
-      <c r="V28">
-        <v>194900000</v>
       </c>
       <c r="W28">
         <v>194900000</v>
       </c>
       <c r="X28">
-        <v>134300000</v>
+        <v>194900000</v>
       </c>
       <c r="Y28">
         <v>134300000</v>
@@ -3246,858 +3417,882 @@
       <c r="AN28">
         <v>134300000</v>
       </c>
+      <c r="AO28">
+        <v>134300000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>19396000000</v>
+        <v>20552400000</v>
       </c>
       <c r="C29">
-        <v>18063000000</v>
+        <v>19785600000</v>
       </c>
       <c r="D29">
-        <v>16775000000</v>
+        <v>18435500000</v>
       </c>
       <c r="E29">
-        <v>15678000000</v>
+        <v>17117800000</v>
       </c>
       <c r="F29">
-        <v>14887000000</v>
+        <v>16013400000</v>
       </c>
       <c r="G29">
+        <v>15216200000</v>
+      </c>
+      <c r="H29">
         <v>14125000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>13276000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>12770300000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>12121500000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>11327100000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>10734800000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>10502900000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>10295100000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>9814699000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>9534001000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>9298200000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>9158899000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>8769899000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>8371900000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>8055400000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>7747600000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>7436700000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>7220101000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>6981800000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>6793000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>6512800000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>6249000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>6060500000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>5895400000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>5631000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>5421000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>5263800000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>5119700000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>4969900000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>4349601000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>4199900000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>4061400000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>3907500000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>3743700000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>19396000000</v>
+        <v>20552400000</v>
       </c>
       <c r="C30">
-        <v>18063000000</v>
+        <v>19785600000</v>
       </c>
       <c r="D30">
-        <v>16775000000</v>
+        <v>18435500000</v>
       </c>
       <c r="E30">
-        <v>15678000000</v>
+        <v>17117800000</v>
       </c>
       <c r="F30">
-        <v>14887000000</v>
+        <v>16013400000</v>
       </c>
       <c r="G30">
+        <v>15216200000</v>
+      </c>
+      <c r="H30">
         <v>14125000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>13276000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>12770300000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>12121500000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>11327100000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>10734800000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>10502900000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>10295100000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>9814700000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>9534000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>9298200000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>9158900000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>8769900000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>8371900000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>8055400000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>7747600000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>7436700000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>7220100000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>6981800000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>6793000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>6512800000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>6249000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>6060500000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>5895400000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>5631000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>5421000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>5263800000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>5119700000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>4969900000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>4349600000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>4199900000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>4061400000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>3907500000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>3743700000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>30264500000</v>
+      </c>
+      <c r="C31">
         <v>30351100000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>28869900000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>26685300000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>24999400000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>24015900000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>21793500000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>21083800000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>19780400000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>18912300000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>17973900000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>17130000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>16322900000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>15606600000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>15224000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>15007000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>14535800000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>14114600000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>13593400000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>13218100000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>12957300000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>12184600000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>11977100000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>11921100000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>11712100000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>11558900000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>11333200000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>11300200000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>11179500000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>11151000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>10863500000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>10713100000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>10338700000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>10185400000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>9716600000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>9372800000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>8927200000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>8856400000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>8287000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>8232500000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>343279000</v>
+      </c>
+      <c r="C32">
         <v>343953000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>347377000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>351955000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>354278000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>356016000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>358125000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>360480000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>363648000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>364000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>363633000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>363538000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>366273000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>368431000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>369748000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>373133000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>373242000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>376262000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>376993000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>377410000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>375694000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>374986000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>374224000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>375531000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>373338000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>372923000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>372172000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>370731000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>369727000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>368647000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>366736000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>366541000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>365341000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>364587000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>364414000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>325060000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>323493000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>322943000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>322801000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>322255000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>20388900000</v>
+      </c>
+      <c r="C33">
         <v>19622100000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>18272000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>16954300000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>15849900000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>15052700000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>13961500000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>13112500000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>12606800000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>11958000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>11163600000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>10571300000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>10339400000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>10131600000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>9651200000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>9370500000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>9139799000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>9049699000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>8660700000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>8262699000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>7955400000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>7667600000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>7356700000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>7140100000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>6901800000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>6713000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>6425600000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>6161800000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>5973300000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>5808200000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>5534000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>5326200000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>5169000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>5024900000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>4875100000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>4308399000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>4158700000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>4022500000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>3868600000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>3704800000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>3542000000</v>
+        <v>1295100000</v>
       </c>
       <c r="C34">
-        <v>4336000000</v>
+        <v>1805000000</v>
       </c>
       <c r="D34">
-        <v>3925000000</v>
+        <v>3964400000</v>
       </c>
       <c r="E34">
-        <v>2830000000</v>
+        <v>3567100000</v>
       </c>
       <c r="F34">
-        <v>2212000000</v>
+        <v>2567400000</v>
       </c>
       <c r="G34">
+        <v>1043900000</v>
+      </c>
+      <c r="H34">
         <v>1897100000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1688600000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1280800000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1254200000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>1995000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>3475900000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>3030300000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>813400000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>1610400000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>2094700000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>1951800000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>901100000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>1176800000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>1509500000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>1745900000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1260000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>1775800000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>1640300000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>1510200000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>1304600000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>1748200000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>1811100000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>1931500000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>1787000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>2435400000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>2719800000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>2722400000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>2517000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>2431000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>2488400000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>2260900000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>2058700000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>2018800000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>1673700000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
-        <v>6115000000</v>
+        <v>5690300000</v>
       </c>
       <c r="C35">
-        <v>6020000000</v>
+        <v>6763900000</v>
       </c>
       <c r="D35">
-        <v>5614000000</v>
+        <v>7731200000</v>
       </c>
       <c r="E35">
-        <v>5295000000</v>
+        <v>7499000000</v>
       </c>
       <c r="F35">
-        <v>5449000000</v>
+        <v>6865300000</v>
       </c>
       <c r="G35">
+        <v>6308400000</v>
+      </c>
+      <c r="H35">
         <v>5510300000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>5676300000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>5194600000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>5823300000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>5870300000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>6392600000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>5651300000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>3399400000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>3450600000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>3622400000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>3342300000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>3203500000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>3093600000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>3233900000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>3258100000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>2871600000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>2926500000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>3222400000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>3217600000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>3271300000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>3301300000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>3662700000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>3734300000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>3811500000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>3821100000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>3945500000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>3726800000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>3665700000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>3445300000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>3862100000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>3461900000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>3509000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>3083600000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>3273000000</v>
       </c>
     </row>
